--- a/all_data.xlsx
+++ b/all_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10804"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/princesa/Desktop/RStudio_QP/experiment_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/princesa/Desktop/Diana_new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A42C418-D591-004F-9CF9-134FD5F2F741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F38E9E-89B0-3640-9AA0-5ED6435ECCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="500" windowWidth="14420" windowHeight="19160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10860" yWindow="500" windowWidth="14420" windowHeight="19040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 1" sheetId="4" r:id="rId1"/>
@@ -608,7 +608,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -650,7 +650,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="1">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D2" s="6">
         <v>5</v>
@@ -670,7 +670,7 @@
         <v>40</v>
       </c>
       <c r="C3" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D3" s="6">
         <v>4</v>
@@ -690,7 +690,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D4" s="6">
         <v>5</v>
@@ -710,7 +710,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="1">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
@@ -730,7 +730,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="1">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D6" s="6">
         <v>4</v>
@@ -750,7 +750,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="1">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="1">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D8" s="6">
         <v>5</v>
@@ -810,7 +810,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="1">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D10" s="6">
         <v>4</v>
@@ -830,7 +830,7 @@
         <v>54</v>
       </c>
       <c r="C11" s="1">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -850,7 +850,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="1">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D12" s="6">
         <v>5</v>
@@ -870,7 +870,7 @@
         <v>43</v>
       </c>
       <c r="C13" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D13" s="6">
         <v>4</v>
@@ -890,7 +890,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="1">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D14" s="6">
         <v>3</v>
@@ -910,7 +910,7 @@
         <v>48</v>
       </c>
       <c r="C15" s="1">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D15" s="6">
         <v>4</v>
@@ -930,7 +930,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="1">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D16" s="6">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>55</v>
       </c>
       <c r="C17" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D17" s="6">
         <v>4</v>
@@ -970,7 +970,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="1">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D18" s="6">
         <v>5</v>
@@ -990,7 +990,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19" s="6">
         <v>1</v>
@@ -1010,7 +1010,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="1">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D20" s="6">
         <v>5</v>
@@ -1050,7 +1050,7 @@
         <v>38</v>
       </c>
       <c r="C22" s="1">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D22" s="6">
         <v>6</v>
@@ -1070,7 +1070,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D23" s="6">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>42</v>
       </c>
       <c r="C24" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D24" s="6">
         <v>3</v>
@@ -1110,7 +1110,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="1">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D25" s="6">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>56</v>
       </c>
       <c r="C26" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D26" s="6">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>46</v>
       </c>
       <c r="C27" s="1">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D27" s="6">
         <v>5</v>
@@ -1170,7 +1170,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="1">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D28" s="6">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>35</v>
       </c>
       <c r="C29" s="1">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D29" s="6">
         <v>3</v>
@@ -1210,7 +1210,7 @@
         <v>47</v>
       </c>
       <c r="C30" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D30" s="6">
         <v>4</v>
@@ -1230,7 +1230,7 @@
         <v>35</v>
       </c>
       <c r="C31" s="1">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D31" s="6">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>44</v>
       </c>
       <c r="C32" s="1">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D32" s="6">
         <v>5</v>
@@ -1270,7 +1270,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="1">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D33" s="6">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         <v>40</v>
       </c>
       <c r="C34" s="1">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D34" s="6">
         <v>4</v>
@@ -1310,7 +1310,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D35" s="6">
         <v>4</v>
@@ -1330,7 +1330,7 @@
         <v>37</v>
       </c>
       <c r="C36" s="1">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D36" s="6">
         <v>4</v>
@@ -1350,7 +1350,7 @@
         <v>30</v>
       </c>
       <c r="C37" s="1">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D37" s="6">
         <v>4</v>
@@ -1370,7 +1370,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D38" s="6">
         <v>4</v>
@@ -1390,7 +1390,7 @@
         <v>30</v>
       </c>
       <c r="C39" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D39" s="6">
         <v>4</v>
@@ -1410,7 +1410,7 @@
         <v>58</v>
       </c>
       <c r="C40" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D40" s="6">
         <v>5</v>
@@ -1430,7 +1430,7 @@
         <v>42</v>
       </c>
       <c r="C41" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D41" s="6">
         <v>0</v>
@@ -1450,7 +1450,7 @@
         <v>23</v>
       </c>
       <c r="C42" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D42" s="6">
         <v>5</v>
@@ -1470,7 +1470,7 @@
         <v>50</v>
       </c>
       <c r="C43" s="1">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D43" s="6">
         <v>6</v>
@@ -1490,7 +1490,7 @@
         <v>25</v>
       </c>
       <c r="C44" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D44" s="6">
         <v>5</v>
@@ -1510,7 +1510,7 @@
         <v>34</v>
       </c>
       <c r="C45" s="1">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D45" s="6">
         <v>4</v>
@@ -1530,7 +1530,7 @@
         <v>59</v>
       </c>
       <c r="C46" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D46" s="6">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         <v>26</v>
       </c>
       <c r="C47" s="1">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D47" s="6">
         <v>6</v>
@@ -1570,7 +1570,7 @@
         <v>27</v>
       </c>
       <c r="C48" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D48" s="6">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>56</v>
       </c>
       <c r="C49" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D49" s="6">
         <v>4</v>
@@ -1610,7 +1610,7 @@
         <v>43</v>
       </c>
       <c r="C50" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D50" s="6">
         <v>5</v>
@@ -1630,7 +1630,7 @@
         <v>44</v>
       </c>
       <c r="C51" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D51" s="6">
         <v>2</v>
@@ -1650,7 +1650,7 @@
         <v>46</v>
       </c>
       <c r="C52" s="1">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D52" s="6">
         <v>4</v>
@@ -1670,7 +1670,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="1">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D53" s="6">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>33</v>
       </c>
       <c r="C54" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D54" s="6">
         <v>4</v>
@@ -1710,7 +1710,7 @@
         <v>31</v>
       </c>
       <c r="C55" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D55" s="6">
         <v>3</v>
@@ -1730,7 +1730,7 @@
         <v>49</v>
       </c>
       <c r="C56" s="1">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D56" s="6">
         <v>3</v>
@@ -1750,7 +1750,7 @@
         <v>50</v>
       </c>
       <c r="C57" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D57" s="6">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>50</v>
       </c>
       <c r="C58" s="1">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D58" s="6">
         <v>5</v>
@@ -1790,7 +1790,7 @@
         <v>43</v>
       </c>
       <c r="C59" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D59" s="6">
         <v>3</v>
